--- a/data/trans_camb/P16A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A_R-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 30,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 27,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 23,22</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,71; 156,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 90,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 91,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 12,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 3,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 4,5</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-39,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 176,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,97; 23,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 36,51</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 27,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 12,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 15,97</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>71,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>51,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 322,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,5; 138,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 188,33</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 16,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 8,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 9,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 143,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 47,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 63,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P16A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,151 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr"/>
+      <c r="E7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+      <c r="D13" s="6" t="inlineStr"/>
+      <c r="E13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +715,161 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr"/>
+      <c r="D17" s="5" t="inlineStr"/>
+      <c r="E17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+      <c r="D18" s="5" t="inlineStr"/>
+      <c r="E18" s="5" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr"/>
+      <c r="E19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr"/>
+      <c r="D23" s="5" t="inlineStr"/>
+      <c r="E23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr"/>
+      <c r="D24" s="5" t="inlineStr"/>
+      <c r="E24" s="5" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr"/>
+      <c r="D25" s="6" t="inlineStr"/>
+      <c r="E25" s="6" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="inlineStr"/>
+      <c r="E26" s="6" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="inlineStr"/>
+      <c r="E27" s="6" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
